--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1077276.614684861</v>
+        <v>1094339.041711454</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>278692.0725916854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7114551.169552122</v>
+        <v>7228097.927258085</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>367.8845755381399</v>
       </c>
       <c r="E2" t="n">
-        <v>357.5897568444348</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.26176538196644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>92.14290270795006</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>332.4291174559668</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>154.9819547845411</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>216.2017488798277</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>32.36127543482709</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.9674059688891</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,16 +1348,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>270.6297285888695</v>
+        <v>54.66258501924893</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>18.2277202765949</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1531,13 +1531,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>161.072347141068</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>105.2234111170475</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>71.84692347866485</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,13 +1765,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>90.32734763589832</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735226032</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394225</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1850,19 +1850,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>251.4544892575881</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>128.7778691150976</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2248,7 +2248,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>169.3086501403041</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2369,7 +2369,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.9986524434719</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2716,22 +2716,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>141.3509401177974</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225774</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800596</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3320,7 +3320,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3430,10 +3430,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>94.431236732152</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>210.6374024238888</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3566,7 +3566,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978574</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>148.8597651553032</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,10 +3721,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>215.9445028798878</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.9998808226843</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>48.28314334362827</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>163.5395542426789</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>129.2606839525045</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>193.8659438253729</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.471904237179</v>
+        <v>888.1040799405455</v>
       </c>
       <c r="C2" t="n">
-        <v>1141.369835461006</v>
+        <v>459.5224056778138</v>
       </c>
       <c r="D2" t="n">
-        <v>1109.500454675855</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>748.2986800855164</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1217.07884972191</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1201.976790341625</v>
+        <v>914.6089660449918</v>
       </c>
       <c r="Y2" t="n">
-        <v>1197.731070681682</v>
+        <v>910.3632463850493</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.5269815952424</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>587.9652700784674</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>422.0872772799901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>252.3292735307273</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>75.62221949248354</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>75.62221949248354</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1653.213838276079</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.157025666709</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1179.765271000121</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.3456003142296</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>574.4223959157541</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439876</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5576814812559</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.67620151272526</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>557.7649106726441</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.39702679087</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1899.780076724696</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1494.92462213573</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1075.78215871504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>667.4960350146936</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>617.1474966153746</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2365.071900398559</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2119.192453977014</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1840.759453230119</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.797825151298</v>
+        <v>1553.80394510055</v>
       </c>
       <c r="W7" t="n">
-        <v>1206.77142073759</v>
+        <v>1281.777540686841</v>
       </c>
       <c r="X7" t="n">
-        <v>961.3796660710025</v>
+        <v>1036.385786020254</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.9599953851107</v>
+        <v>808.9661153343618</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>945.0851728516207</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>516.503498588889</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>1612.716505715692</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>1597.614446335406</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.384743336529</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>718.8484307043673</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>718.8484307043673</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>718.8484307043673</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>718.8484307043673</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526436</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>944.829865684731</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>516.9624360939388</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>115.5646047172022</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.4711828007306</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C13" t="n">
-        <v>792.9094712839556</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D13" t="n">
-        <v>627.0314784854784</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>457.2734747362156</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9872008806122</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.51614016237</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.083139415475</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V13" t="n">
-        <v>1902.127631285906</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W13" t="n">
-        <v>1630.101226872197</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.709472205609</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y13" t="n">
-        <v>1157.289801519718</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928798</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.8119928040993</v>
+        <v>970.9960463903981</v>
       </c>
       <c r="C16" t="n">
-        <v>693.5722477173333</v>
+        <v>798.434334873623</v>
       </c>
       <c r="D16" t="n">
-        <v>527.694254918856</v>
+        <v>632.5563420751457</v>
       </c>
       <c r="E16" t="n">
-        <v>527.694254918856</v>
+        <v>462.798338325883</v>
       </c>
       <c r="F16" t="n">
-        <v>350.9872008806122</v>
+        <v>286.0912842876392</v>
       </c>
       <c r="G16" t="n">
-        <v>185.3959259064399</v>
+        <v>120.5000093134668</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>120.5000093134668</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587284</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165739</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1907.652494875573</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875566</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.050282208978</v>
+        <v>1390.234335795277</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.6306115230864</v>
+        <v>1162.814665109385</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181338</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364761</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539206</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945682</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.11133435489</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781539</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>98.5833484213706</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.5833484213706</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742885</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2574.179093706233</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2574.179093706233</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.358760276539</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4382.668635109935</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.16742106853</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.16742106853</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252367</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125405</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442422</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376248</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787281</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366592</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666245</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126634</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493057</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958589</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228126</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389743</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051581</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.5833484213706</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818282</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480405</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.2053465480405</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>449.2053465480405</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2053465480405</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N18" t="n">
-        <v>449.2053465480405</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O18" t="n">
-        <v>449.2053465480405</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132058</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924266</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.390284833755</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>750.8285733169799</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>584.9505805185026</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>415.1925767692399</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>238.4855227309961</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4855227309961</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.5833484213706</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.5833484213706</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860605</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571961</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251572</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324158</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1342.628574238634</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1115.208903552742</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,22 +5759,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,10 +5826,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>864.7097725347917</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>692.1480610180166</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>526.2700682195393</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>356.5120644702766</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1283.948061939671</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.528391253779</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,10 +5975,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5999,16 +5999,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R23" t="n">
         <v>5113.042013538981</v>
@@ -6017,22 +6017,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2562.150454693626</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2316.271008272081</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883916</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716165</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>496.4142387799021</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6546,22 +6546,22 @@
         <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6777,7 +6777,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.773653488281</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -6968,19 +6968,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.416826573036</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562605</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577832</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085205</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702768</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
         <v>190.9207894961043</v>
@@ -7096,7 +7096,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7132,13 +7132,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1514.228251925515</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.836497258928</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1041.416826573036</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,43 +7172,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.0206718702449</v>
+        <v>1092.659051657332</v>
       </c>
       <c r="C40" t="n">
-        <v>666.4589603534698</v>
+        <v>920.0973401405573</v>
       </c>
       <c r="D40" t="n">
-        <v>500.5809675549925</v>
+        <v>754.21934734208</v>
       </c>
       <c r="E40" t="n">
-        <v>330.8229638057298</v>
+        <v>584.4613435928172</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2568.557051026808</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050032</v>
+        <v>2322.677604605263</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303137</v>
+        <v>2044.244603858368</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1757.289095728799</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759859</v>
+        <v>1757.289095728799</v>
       </c>
       <c r="X40" t="n">
-        <v>1258.258961275124</v>
+        <v>1511.897341062211</v>
       </c>
       <c r="Y40" t="n">
-        <v>1030.839290589232</v>
+        <v>1284.47767037632</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538674</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722097</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640441</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873079</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305242</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305242</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>934.7637604887022</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2009.823726741562</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3166.871561952112</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>4292.60254538856</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>5020.67342652621</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>5020.67342652621</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.67342652621</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.67342652621</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710047</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583086</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900102</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833929</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244962</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824273</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.585213521817</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584593</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050125</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319662</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481279</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143117</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909818</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571941</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571941</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571941</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1649.760300749694</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1649.760300749694</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1649.760300749694</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1649.760300749694</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1649.760300749694</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223594</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015801</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1088.340306695031</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>915.7785951782558</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>749.9006023797785</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>580.1425986305157</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>403.435544592272</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>237.8442696180996</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558489</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305242</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952141</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663496</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343107</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.37340959865</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568992</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.831709731321</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2311.952263309775</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2311.952263309775</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2024.996755180206</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1752.970350766497</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1507.57859609991</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.158925414018</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>403.2461837293691</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1237.596475687547</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2312.656441940406</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111519</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>421.2943016473275</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.027821717705</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.027821717705</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.027821717705</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.027821717705</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.027821717705</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776222</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777442</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460367</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U46" t="n">
-        <v>2112.450585778171</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.450585778171</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697876</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8146,16 +8146,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>512.4570950335021</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475602</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504108</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158828</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10194,7 +10194,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10425,10 +10425,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10829,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,22 +11066,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>735.4251324622737</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>115.0433628885246</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>268.011132734621</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.146865729424547</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>69.71657238081383</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>184.7831561774884</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>80.50874676570899</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.71657238081109</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>177.9825081356997</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>114.159968004824</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>73.6291869796176</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>23.65030257151145</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22.86827275269508</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627256</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>80.50874676570933</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>58.66873794568258</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>8.789189859680107</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>26.9933342400339</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.20338164065876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>90.22000922290096</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>268.011132734621</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>81.78272691405286</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>585204.4926532179</v>
+        <v>602114.2558842516</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>585204.4926532179</v>
+        <v>605158.8959454857</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608681.5141275129</v>
+        <v>634368.5695750326</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608681.514127513</v>
+        <v>634368.5695750327</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>617270.602265887</v>
+        <v>634368.5695750327</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634368.5695750327</v>
+        <v>634368.5695750326</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>634368.5695750325</v>
+        <v>634368.5695750327</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625779.4814366585</v>
+        <v>634368.5695750327</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608681.514127513</v>
+        <v>634368.5695750325</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>379142.9234787573</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="F2" t="n">
-        <v>379142.9234787573</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="G2" t="n">
-        <v>384492.9988650088</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
+        <v>395143.1881030142</v>
+      </c>
+      <c r="N2" t="n">
         <v>395143.1881030143</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="P2" t="n">
         <v>395143.1881030142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>389793.1127167627</v>
-      </c>
-      <c r="P2" t="n">
-        <v>379142.9234787573</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501603</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998289</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042848829</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.754979965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.499790937</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>105397.8699742193</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
-        <v>108317.317828463</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="I4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26454,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>106850.7461312488</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024164</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26494,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.2360831984</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17730.86491169507</v>
+        <v>-17730.86491169503</v>
       </c>
       <c r="C6" t="n">
-        <v>124460.4357480148</v>
+        <v>75602.00842385078</v>
       </c>
       <c r="D6" t="n">
-        <v>124460.435748015</v>
+        <v>133854.387532738</v>
       </c>
       <c r="E6" t="n">
-        <v>-32662.73909793294</v>
+        <v>26729.29810832635</v>
       </c>
       <c r="F6" t="n">
-        <v>201692.2829241045</v>
+        <v>209084.4073293761</v>
       </c>
       <c r="G6" t="n">
-        <v>197842.573047699</v>
+        <v>209084.4073293762</v>
       </c>
       <c r="H6" t="n">
-        <v>196704.8766887937</v>
+        <v>209084.4073293761</v>
       </c>
       <c r="I6" t="n">
-        <v>209107.6316687587</v>
+        <v>209084.4073293762</v>
       </c>
       <c r="J6" t="n">
-        <v>98093.16632376856</v>
+        <v>98069.94198438592</v>
       </c>
       <c r="K6" t="n">
-        <v>209107.6316687588</v>
+        <v>156038.5526906037</v>
       </c>
       <c r="L6" t="n">
-        <v>209107.6316687588</v>
+        <v>199692.1056027537</v>
       </c>
       <c r="M6" t="n">
-        <v>13506.45238569111</v>
+        <v>56884.23639138843</v>
       </c>
       <c r="N6" t="n">
-        <v>209107.6316687588</v>
+        <v>209084.4073293762</v>
       </c>
       <c r="O6" t="n">
-        <v>206628.1305023155</v>
+        <v>209084.4073293761</v>
       </c>
       <c r="P6" t="n">
-        <v>201692.2829241045</v>
+        <v>209084.4073293761</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267132</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631553</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939379</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319273</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761284</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939379</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319273</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761284</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.66611143915998</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>71.84724054885294</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.24138718456278</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>329.8936720721086</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>97.00787993732098</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>2.66700023044217</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>67.8842041684461</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>185.5052794208647</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.235856494454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>13.45622445940438</v>
+        <v>229.4233680290249</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-8.06866097220871e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34866,16 +34866,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>512.4570950335021</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475602</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2533329504108</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158828</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36045,13 +36045,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956044</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512945</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36914,7 +36914,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37145,10 +37145,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,10 +37324,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37467,7 +37467,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>735.4251324622737</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>115.0433628885246</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38111,10 +38111,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
